--- a/base/data_set/account_data_template.xlsx
+++ b/base/data_set/account_data_template.xlsx
@@ -508,18 +508,18 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>October</t>
+          <t>November</t>
         </is>
       </c>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="n">
-        <v>2024</v>
+        <v>3802</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>34504148</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>44152</v>
+        <v>44190</v>
       </c>
     </row>
     <row r="3">
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="C3" s="3" t="n">
-        <v>886</v>
+        <v>2707</v>
       </c>
       <c r="D3" s="3" t="n"/>
     </row>
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="C4" s="3" t="n">
-        <v>1278</v>
+        <v>1286</v>
       </c>
       <c r="D4" s="3" t="n"/>
     </row>
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="C5" s="3" t="n">
-        <v>-80</v>
+        <v>-131</v>
       </c>
       <c r="D5" s="3" t="n"/>
     </row>
@@ -579,18 +579,18 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>November</t>
+          <t>December</t>
         </is>
       </c>
       <c r="B8" s="2" t="n"/>
       <c r="C8" s="3" t="n">
-        <v>1750</v>
+        <v>648</v>
       </c>
       <c r="D8" s="3" t="n">
         <v>34504148</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>44187</v>
+        <v>44221</v>
       </c>
     </row>
     <row r="9">
@@ -601,7 +601,7 @@
         </is>
       </c>
       <c r="C9" s="3" t="n">
-        <v>1886</v>
+        <v>1260</v>
       </c>
       <c r="D9" s="3" t="n"/>
     </row>
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="C10" s="3" t="n">
-        <v>57</v>
+        <v>-376</v>
       </c>
       <c r="D10" s="3" t="n"/>
     </row>
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="C11" s="3" t="n">
-        <v>-136</v>
+        <v>-86</v>
       </c>
       <c r="D11" s="3" t="n"/>
     </row>
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="C12" s="3" t="n">
-        <v>-57</v>
+        <v>-150</v>
       </c>
       <c r="D12" s="3" t="n"/>
     </row>

--- a/base/data_set/account_data_template.xlsx
+++ b/base/data_set/account_data_template.xlsx
@@ -508,18 +508,18 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>November</t>
+          <t>December</t>
         </is>
       </c>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="n">
-        <v>3802</v>
+        <v>1832</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>34504148</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>44190</v>
+        <v>44221</v>
       </c>
     </row>
     <row r="3">
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="C3" s="3" t="n">
-        <v>2707</v>
+        <v>1249</v>
       </c>
       <c r="D3" s="3" t="n"/>
     </row>
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="C4" s="3" t="n">
-        <v>1286</v>
+        <v>743</v>
       </c>
       <c r="D4" s="3" t="n"/>
     </row>
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="C5" s="3" t="n">
-        <v>-131</v>
+        <v>-68</v>
       </c>
       <c r="D5" s="3" t="n"/>
     </row>
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="C6" s="3" t="n">
-        <v>-60</v>
+        <v>-92</v>
       </c>
       <c r="D6" s="3" t="n"/>
     </row>
@@ -579,18 +579,18 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>December</t>
+          <t>January</t>
         </is>
       </c>
       <c r="B8" s="2" t="n"/>
       <c r="C8" s="3" t="n">
-        <v>648</v>
+        <v>2118</v>
       </c>
       <c r="D8" s="3" t="n">
         <v>34504148</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>44221</v>
+        <v>44252</v>
       </c>
     </row>
     <row r="9">
@@ -601,7 +601,7 @@
         </is>
       </c>
       <c r="C9" s="3" t="n">
-        <v>1260</v>
+        <v>2726</v>
       </c>
       <c r="D9" s="3" t="n"/>
     </row>
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="C10" s="3" t="n">
-        <v>-376</v>
+        <v>-371</v>
       </c>
       <c r="D10" s="3" t="n"/>
     </row>
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="C11" s="3" t="n">
-        <v>-86</v>
+        <v>-98</v>
       </c>
       <c r="D11" s="3" t="n"/>
     </row>
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="C12" s="3" t="n">
-        <v>-150</v>
+        <v>-139</v>
       </c>
       <c r="D12" s="3" t="n"/>
     </row>

--- a/base/data_set/account_data_template.xlsx
+++ b/base/data_set/account_data_template.xlsx
@@ -513,7 +513,7 @@
       </c>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="n">
-        <v>1832</v>
+        <v>583</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>34504148</v>
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="C3" s="3" t="n">
-        <v>1249</v>
+        <v>1034</v>
       </c>
       <c r="D3" s="3" t="n"/>
     </row>
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="C4" s="3" t="n">
-        <v>743</v>
+        <v>-142</v>
       </c>
       <c r="D4" s="3" t="n"/>
     </row>
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="C5" s="3" t="n">
-        <v>-68</v>
+        <v>-197</v>
       </c>
       <c r="D5" s="3" t="n"/>
     </row>
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="C6" s="3" t="n">
-        <v>-92</v>
+        <v>-112</v>
       </c>
       <c r="D6" s="3" t="n"/>
     </row>
@@ -584,7 +584,7 @@
       </c>
       <c r="B8" s="2" t="n"/>
       <c r="C8" s="3" t="n">
-        <v>2118</v>
+        <v>1899</v>
       </c>
       <c r="D8" s="3" t="n">
         <v>34504148</v>
@@ -601,7 +601,7 @@
         </is>
       </c>
       <c r="C9" s="3" t="n">
-        <v>2726</v>
+        <v>1049</v>
       </c>
       <c r="D9" s="3" t="n"/>
     </row>
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="C10" s="3" t="n">
-        <v>-371</v>
+        <v>1114</v>
       </c>
       <c r="D10" s="3" t="n"/>
     </row>
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="C11" s="3" t="n">
-        <v>-98</v>
+        <v>-99</v>
       </c>
       <c r="D11" s="3" t="n"/>
     </row>
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="C12" s="3" t="n">
-        <v>-139</v>
+        <v>-165</v>
       </c>
       <c r="D12" s="3" t="n"/>
     </row>

--- a/base/data_set/account_data_template.xlsx
+++ b/base/data_set/account_data_template.xlsx
@@ -513,7 +513,7 @@
       </c>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="n">
-        <v>583</v>
+        <v>528</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>34504148</v>
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="C3" s="3" t="n">
-        <v>1034</v>
+        <v>583</v>
       </c>
       <c r="D3" s="3" t="n"/>
     </row>
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="C4" s="3" t="n">
-        <v>-142</v>
+        <v>187</v>
       </c>
       <c r="D4" s="3" t="n"/>
     </row>
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="C5" s="3" t="n">
-        <v>-197</v>
+        <v>-66</v>
       </c>
       <c r="D5" s="3" t="n"/>
     </row>
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="C6" s="3" t="n">
-        <v>-112</v>
+        <v>-176</v>
       </c>
       <c r="D6" s="3" t="n"/>
     </row>
@@ -579,18 +579,18 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>February</t>
         </is>
       </c>
       <c r="B8" s="2" t="n"/>
       <c r="C8" s="3" t="n">
-        <v>1899</v>
+        <v>1903</v>
       </c>
       <c r="D8" s="3" t="n">
         <v>34504148</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>44252</v>
+        <v>44280</v>
       </c>
     </row>
     <row r="9">
@@ -601,7 +601,7 @@
         </is>
       </c>
       <c r="C9" s="3" t="n">
-        <v>1049</v>
+        <v>1529</v>
       </c>
       <c r="D9" s="3" t="n"/>
     </row>
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="C10" s="3" t="n">
-        <v>1114</v>
+        <v>620</v>
       </c>
       <c r="D10" s="3" t="n"/>
     </row>
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="C11" s="3" t="n">
-        <v>-99</v>
+        <v>-84</v>
       </c>
       <c r="D11" s="3" t="n"/>
     </row>
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="C12" s="3" t="n">
-        <v>-165</v>
+        <v>-162</v>
       </c>
       <c r="D12" s="3" t="n"/>
     </row>

--- a/base/data_set/account_data_template.xlsx
+++ b/base/data_set/account_data_template.xlsx
@@ -508,18 +508,18 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>December</t>
+          <t>February</t>
         </is>
       </c>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="n">
-        <v>528</v>
+        <v>2046</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>34504148</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>44221</v>
+        <v>44280</v>
       </c>
     </row>
     <row r="3">
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="C3" s="3" t="n">
-        <v>583</v>
+        <v>933</v>
       </c>
       <c r="D3" s="3" t="n"/>
     </row>
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="C4" s="3" t="n">
-        <v>187</v>
+        <v>1374</v>
       </c>
       <c r="D4" s="3" t="n"/>
     </row>
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="C5" s="3" t="n">
-        <v>-66</v>
+        <v>-67</v>
       </c>
       <c r="D5" s="3" t="n"/>
     </row>
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="C6" s="3" t="n">
-        <v>-176</v>
+        <v>-194</v>
       </c>
       <c r="D6" s="3" t="n"/>
     </row>
@@ -579,18 +579,18 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>February</t>
+          <t>March</t>
         </is>
       </c>
       <c r="B8" s="2" t="n"/>
       <c r="C8" s="3" t="n">
-        <v>1903</v>
+        <v>2965</v>
       </c>
       <c r="D8" s="3" t="n">
         <v>34504148</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>44280</v>
+        <v>44311</v>
       </c>
     </row>
     <row r="9">
@@ -601,7 +601,7 @@
         </is>
       </c>
       <c r="C9" s="3" t="n">
-        <v>1529</v>
+        <v>1972</v>
       </c>
       <c r="D9" s="3" t="n"/>
     </row>
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="C10" s="3" t="n">
-        <v>620</v>
+        <v>1157</v>
       </c>
       <c r="D10" s="3" t="n"/>
     </row>
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="C11" s="3" t="n">
-        <v>-84</v>
+        <v>-58</v>
       </c>
       <c r="D11" s="3" t="n"/>
     </row>
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="C12" s="3" t="n">
-        <v>-162</v>
+        <v>-106</v>
       </c>
       <c r="D12" s="3" t="n"/>
     </row>
